--- a/TestData/T1624_OpportunityToEngagementConversionMappingForFRJobTypes.xlsx
+++ b/TestData/T1624_OpportunityToEngagementConversionMappingForFRJobTypes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE78901-07F9-42A7-A5E9-CF710E09A5CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0D7B9C-8244-4227-9F7D-CCB1E075788E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7530" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddOpportunity" sheetId="1" r:id="rId1"/>
@@ -1000,7 +1000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+    <sheetView topLeftCell="X1" workbookViewId="0">
       <selection activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
@@ -1335,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>
